--- a/Golongan Pemilik.xlsx
+++ b/Golongan Pemilik.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00006243\My Documents\00_2017_MBD\00 SecOps\Sistem\CSA\2024\Release 9\Data Maintenance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REGULATORY DEVELOPMENT\MAINTENANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2209A6-AD31-4A42-A27F-3517598031FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C93112-FAB5-42B4-9679-AD200B1EA9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7699FF55-2C56-4C69-9315-4235FF6813AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{7699FF55-2C56-4C69-9315-4235FF6813AB}"/>
   </bookViews>
   <sheets>
     <sheet name="PEMILIK" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEMILIK!$A$1:$E$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEMILIK!$A$2:$E$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="485">
   <si>
     <t>Pfolio Code</t>
   </si>
@@ -1483,6 +1481,18 @@
   </si>
   <si>
     <t>- Dan kolom ini tidak dibuat mandatory (jika di-maintain)</t>
+  </si>
+  <si>
+    <t>Mandatory, length must be 6 characters, and alphanumeric</t>
+  </si>
+  <si>
+    <t>Mandatory, but free text</t>
+  </si>
+  <si>
+    <t>Mandatory, and alphanumeric</t>
+  </si>
+  <si>
+    <t>Mandatory,  must be 2 characters, and alphabetic</t>
   </si>
 </sst>
 </file>
@@ -1511,12 +1521,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1532,12 +1548,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1873,602 +1892,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA004760-6118-4FB3-8B48-D4AA43A3BA66}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="24.88671875" customWidth="1"/>
-    <col min="257" max="257" width="43.5546875" customWidth="1"/>
-    <col min="258" max="258" width="19.44140625" customWidth="1"/>
-    <col min="259" max="259" width="8.88671875" customWidth="1"/>
-    <col min="260" max="260" width="48.6640625" customWidth="1"/>
-    <col min="261" max="261" width="19.88671875" customWidth="1"/>
-    <col min="510" max="510" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="24.88671875" customWidth="1"/>
-    <col min="513" max="513" width="43.5546875" customWidth="1"/>
-    <col min="514" max="514" width="19.44140625" customWidth="1"/>
-    <col min="515" max="515" width="8.88671875" customWidth="1"/>
-    <col min="516" max="516" width="48.6640625" customWidth="1"/>
-    <col min="517" max="517" width="19.88671875" customWidth="1"/>
-    <col min="766" max="766" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="767" max="767" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="24.88671875" customWidth="1"/>
-    <col min="769" max="769" width="43.5546875" customWidth="1"/>
-    <col min="770" max="770" width="19.44140625" customWidth="1"/>
-    <col min="771" max="771" width="8.88671875" customWidth="1"/>
-    <col min="772" max="772" width="48.6640625" customWidth="1"/>
-    <col min="773" max="773" width="19.88671875" customWidth="1"/>
-    <col min="1022" max="1022" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="1023" max="1023" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="24.88671875" customWidth="1"/>
-    <col min="1025" max="1025" width="43.5546875" customWidth="1"/>
-    <col min="1026" max="1026" width="19.44140625" customWidth="1"/>
-    <col min="1027" max="1027" width="8.88671875" customWidth="1"/>
-    <col min="1028" max="1028" width="48.6640625" customWidth="1"/>
-    <col min="1029" max="1029" width="19.88671875" customWidth="1"/>
-    <col min="1278" max="1278" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="1279" max="1279" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="24.88671875" customWidth="1"/>
-    <col min="1281" max="1281" width="43.5546875" customWidth="1"/>
-    <col min="1282" max="1282" width="19.44140625" customWidth="1"/>
-    <col min="1283" max="1283" width="8.88671875" customWidth="1"/>
-    <col min="1284" max="1284" width="48.6640625" customWidth="1"/>
-    <col min="1285" max="1285" width="19.88671875" customWidth="1"/>
-    <col min="1534" max="1534" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="1535" max="1535" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="24.88671875" customWidth="1"/>
-    <col min="1537" max="1537" width="43.5546875" customWidth="1"/>
-    <col min="1538" max="1538" width="19.44140625" customWidth="1"/>
-    <col min="1539" max="1539" width="8.88671875" customWidth="1"/>
-    <col min="1540" max="1540" width="48.6640625" customWidth="1"/>
-    <col min="1541" max="1541" width="19.88671875" customWidth="1"/>
-    <col min="1790" max="1790" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="1791" max="1791" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="24.88671875" customWidth="1"/>
-    <col min="1793" max="1793" width="43.5546875" customWidth="1"/>
-    <col min="1794" max="1794" width="19.44140625" customWidth="1"/>
-    <col min="1795" max="1795" width="8.88671875" customWidth="1"/>
-    <col min="1796" max="1796" width="48.6640625" customWidth="1"/>
-    <col min="1797" max="1797" width="19.88671875" customWidth="1"/>
-    <col min="2046" max="2046" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2047" max="2047" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="24.88671875" customWidth="1"/>
-    <col min="2049" max="2049" width="43.5546875" customWidth="1"/>
-    <col min="2050" max="2050" width="19.44140625" customWidth="1"/>
-    <col min="2051" max="2051" width="8.88671875" customWidth="1"/>
-    <col min="2052" max="2052" width="48.6640625" customWidth="1"/>
-    <col min="2053" max="2053" width="19.88671875" customWidth="1"/>
-    <col min="2302" max="2302" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2303" max="2303" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="24.88671875" customWidth="1"/>
-    <col min="2305" max="2305" width="43.5546875" customWidth="1"/>
-    <col min="2306" max="2306" width="19.44140625" customWidth="1"/>
-    <col min="2307" max="2307" width="8.88671875" customWidth="1"/>
-    <col min="2308" max="2308" width="48.6640625" customWidth="1"/>
-    <col min="2309" max="2309" width="19.88671875" customWidth="1"/>
-    <col min="2558" max="2558" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2559" max="2559" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="24.88671875" customWidth="1"/>
-    <col min="2561" max="2561" width="43.5546875" customWidth="1"/>
-    <col min="2562" max="2562" width="19.44140625" customWidth="1"/>
-    <col min="2563" max="2563" width="8.88671875" customWidth="1"/>
-    <col min="2564" max="2564" width="48.6640625" customWidth="1"/>
-    <col min="2565" max="2565" width="19.88671875" customWidth="1"/>
-    <col min="2814" max="2814" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2815" max="2815" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="24.88671875" customWidth="1"/>
-    <col min="2817" max="2817" width="43.5546875" customWidth="1"/>
-    <col min="2818" max="2818" width="19.44140625" customWidth="1"/>
-    <col min="2819" max="2819" width="8.88671875" customWidth="1"/>
-    <col min="2820" max="2820" width="48.6640625" customWidth="1"/>
-    <col min="2821" max="2821" width="19.88671875" customWidth="1"/>
-    <col min="3070" max="3070" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3071" max="3071" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="24.88671875" customWidth="1"/>
-    <col min="3073" max="3073" width="43.5546875" customWidth="1"/>
-    <col min="3074" max="3074" width="19.44140625" customWidth="1"/>
-    <col min="3075" max="3075" width="8.88671875" customWidth="1"/>
-    <col min="3076" max="3076" width="48.6640625" customWidth="1"/>
-    <col min="3077" max="3077" width="19.88671875" customWidth="1"/>
-    <col min="3326" max="3326" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3327" max="3327" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="24.88671875" customWidth="1"/>
-    <col min="3329" max="3329" width="43.5546875" customWidth="1"/>
-    <col min="3330" max="3330" width="19.44140625" customWidth="1"/>
-    <col min="3331" max="3331" width="8.88671875" customWidth="1"/>
-    <col min="3332" max="3332" width="48.6640625" customWidth="1"/>
-    <col min="3333" max="3333" width="19.88671875" customWidth="1"/>
-    <col min="3582" max="3582" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3583" max="3583" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="24.88671875" customWidth="1"/>
-    <col min="3585" max="3585" width="43.5546875" customWidth="1"/>
-    <col min="3586" max="3586" width="19.44140625" customWidth="1"/>
-    <col min="3587" max="3587" width="8.88671875" customWidth="1"/>
-    <col min="3588" max="3588" width="48.6640625" customWidth="1"/>
-    <col min="3589" max="3589" width="19.88671875" customWidth="1"/>
-    <col min="3838" max="3838" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3839" max="3839" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="24.88671875" customWidth="1"/>
-    <col min="3841" max="3841" width="43.5546875" customWidth="1"/>
-    <col min="3842" max="3842" width="19.44140625" customWidth="1"/>
-    <col min="3843" max="3843" width="8.88671875" customWidth="1"/>
-    <col min="3844" max="3844" width="48.6640625" customWidth="1"/>
-    <col min="3845" max="3845" width="19.88671875" customWidth="1"/>
-    <col min="4094" max="4094" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4095" max="4095" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="24.88671875" customWidth="1"/>
-    <col min="4097" max="4097" width="43.5546875" customWidth="1"/>
-    <col min="4098" max="4098" width="19.44140625" customWidth="1"/>
-    <col min="4099" max="4099" width="8.88671875" customWidth="1"/>
-    <col min="4100" max="4100" width="48.6640625" customWidth="1"/>
-    <col min="4101" max="4101" width="19.88671875" customWidth="1"/>
-    <col min="4350" max="4350" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4351" max="4351" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="24.88671875" customWidth="1"/>
-    <col min="4353" max="4353" width="43.5546875" customWidth="1"/>
-    <col min="4354" max="4354" width="19.44140625" customWidth="1"/>
-    <col min="4355" max="4355" width="8.88671875" customWidth="1"/>
-    <col min="4356" max="4356" width="48.6640625" customWidth="1"/>
-    <col min="4357" max="4357" width="19.88671875" customWidth="1"/>
-    <col min="4606" max="4606" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4607" max="4607" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="24.88671875" customWidth="1"/>
-    <col min="4609" max="4609" width="43.5546875" customWidth="1"/>
-    <col min="4610" max="4610" width="19.44140625" customWidth="1"/>
-    <col min="4611" max="4611" width="8.88671875" customWidth="1"/>
-    <col min="4612" max="4612" width="48.6640625" customWidth="1"/>
-    <col min="4613" max="4613" width="19.88671875" customWidth="1"/>
-    <col min="4862" max="4862" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4863" max="4863" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="24.88671875" customWidth="1"/>
-    <col min="4865" max="4865" width="43.5546875" customWidth="1"/>
-    <col min="4866" max="4866" width="19.44140625" customWidth="1"/>
-    <col min="4867" max="4867" width="8.88671875" customWidth="1"/>
-    <col min="4868" max="4868" width="48.6640625" customWidth="1"/>
-    <col min="4869" max="4869" width="19.88671875" customWidth="1"/>
-    <col min="5118" max="5118" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5119" max="5119" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="24.88671875" customWidth="1"/>
-    <col min="5121" max="5121" width="43.5546875" customWidth="1"/>
-    <col min="5122" max="5122" width="19.44140625" customWidth="1"/>
-    <col min="5123" max="5123" width="8.88671875" customWidth="1"/>
-    <col min="5124" max="5124" width="48.6640625" customWidth="1"/>
-    <col min="5125" max="5125" width="19.88671875" customWidth="1"/>
-    <col min="5374" max="5374" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5375" max="5375" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="24.88671875" customWidth="1"/>
-    <col min="5377" max="5377" width="43.5546875" customWidth="1"/>
-    <col min="5378" max="5378" width="19.44140625" customWidth="1"/>
-    <col min="5379" max="5379" width="8.88671875" customWidth="1"/>
-    <col min="5380" max="5380" width="48.6640625" customWidth="1"/>
-    <col min="5381" max="5381" width="19.88671875" customWidth="1"/>
-    <col min="5630" max="5630" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5631" max="5631" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="24.88671875" customWidth="1"/>
-    <col min="5633" max="5633" width="43.5546875" customWidth="1"/>
-    <col min="5634" max="5634" width="19.44140625" customWidth="1"/>
-    <col min="5635" max="5635" width="8.88671875" customWidth="1"/>
-    <col min="5636" max="5636" width="48.6640625" customWidth="1"/>
-    <col min="5637" max="5637" width="19.88671875" customWidth="1"/>
-    <col min="5886" max="5886" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5887" max="5887" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="24.88671875" customWidth="1"/>
-    <col min="5889" max="5889" width="43.5546875" customWidth="1"/>
-    <col min="5890" max="5890" width="19.44140625" customWidth="1"/>
-    <col min="5891" max="5891" width="8.88671875" customWidth="1"/>
-    <col min="5892" max="5892" width="48.6640625" customWidth="1"/>
-    <col min="5893" max="5893" width="19.88671875" customWidth="1"/>
-    <col min="6142" max="6142" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6143" max="6143" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="24.88671875" customWidth="1"/>
-    <col min="6145" max="6145" width="43.5546875" customWidth="1"/>
-    <col min="6146" max="6146" width="19.44140625" customWidth="1"/>
-    <col min="6147" max="6147" width="8.88671875" customWidth="1"/>
-    <col min="6148" max="6148" width="48.6640625" customWidth="1"/>
-    <col min="6149" max="6149" width="19.88671875" customWidth="1"/>
-    <col min="6398" max="6398" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6399" max="6399" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="24.88671875" customWidth="1"/>
-    <col min="6401" max="6401" width="43.5546875" customWidth="1"/>
-    <col min="6402" max="6402" width="19.44140625" customWidth="1"/>
-    <col min="6403" max="6403" width="8.88671875" customWidth="1"/>
-    <col min="6404" max="6404" width="48.6640625" customWidth="1"/>
-    <col min="6405" max="6405" width="19.88671875" customWidth="1"/>
-    <col min="6654" max="6654" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6655" max="6655" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="24.88671875" customWidth="1"/>
-    <col min="6657" max="6657" width="43.5546875" customWidth="1"/>
-    <col min="6658" max="6658" width="19.44140625" customWidth="1"/>
-    <col min="6659" max="6659" width="8.88671875" customWidth="1"/>
-    <col min="6660" max="6660" width="48.6640625" customWidth="1"/>
-    <col min="6661" max="6661" width="19.88671875" customWidth="1"/>
-    <col min="6910" max="6910" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6911" max="6911" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="24.88671875" customWidth="1"/>
-    <col min="6913" max="6913" width="43.5546875" customWidth="1"/>
-    <col min="6914" max="6914" width="19.44140625" customWidth="1"/>
-    <col min="6915" max="6915" width="8.88671875" customWidth="1"/>
-    <col min="6916" max="6916" width="48.6640625" customWidth="1"/>
-    <col min="6917" max="6917" width="19.88671875" customWidth="1"/>
-    <col min="7166" max="7166" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7167" max="7167" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="24.88671875" customWidth="1"/>
-    <col min="7169" max="7169" width="43.5546875" customWidth="1"/>
-    <col min="7170" max="7170" width="19.44140625" customWidth="1"/>
-    <col min="7171" max="7171" width="8.88671875" customWidth="1"/>
-    <col min="7172" max="7172" width="48.6640625" customWidth="1"/>
-    <col min="7173" max="7173" width="19.88671875" customWidth="1"/>
-    <col min="7422" max="7422" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7423" max="7423" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="24.88671875" customWidth="1"/>
-    <col min="7425" max="7425" width="43.5546875" customWidth="1"/>
-    <col min="7426" max="7426" width="19.44140625" customWidth="1"/>
-    <col min="7427" max="7427" width="8.88671875" customWidth="1"/>
-    <col min="7428" max="7428" width="48.6640625" customWidth="1"/>
-    <col min="7429" max="7429" width="19.88671875" customWidth="1"/>
-    <col min="7678" max="7678" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7679" max="7679" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="24.88671875" customWidth="1"/>
-    <col min="7681" max="7681" width="43.5546875" customWidth="1"/>
-    <col min="7682" max="7682" width="19.44140625" customWidth="1"/>
-    <col min="7683" max="7683" width="8.88671875" customWidth="1"/>
-    <col min="7684" max="7684" width="48.6640625" customWidth="1"/>
-    <col min="7685" max="7685" width="19.88671875" customWidth="1"/>
-    <col min="7934" max="7934" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7935" max="7935" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="24.88671875" customWidth="1"/>
-    <col min="7937" max="7937" width="43.5546875" customWidth="1"/>
-    <col min="7938" max="7938" width="19.44140625" customWidth="1"/>
-    <col min="7939" max="7939" width="8.88671875" customWidth="1"/>
-    <col min="7940" max="7940" width="48.6640625" customWidth="1"/>
-    <col min="7941" max="7941" width="19.88671875" customWidth="1"/>
-    <col min="8190" max="8190" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8191" max="8191" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="24.88671875" customWidth="1"/>
-    <col min="8193" max="8193" width="43.5546875" customWidth="1"/>
-    <col min="8194" max="8194" width="19.44140625" customWidth="1"/>
-    <col min="8195" max="8195" width="8.88671875" customWidth="1"/>
-    <col min="8196" max="8196" width="48.6640625" customWidth="1"/>
-    <col min="8197" max="8197" width="19.88671875" customWidth="1"/>
-    <col min="8446" max="8446" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8447" max="8447" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="24.88671875" customWidth="1"/>
-    <col min="8449" max="8449" width="43.5546875" customWidth="1"/>
-    <col min="8450" max="8450" width="19.44140625" customWidth="1"/>
-    <col min="8451" max="8451" width="8.88671875" customWidth="1"/>
-    <col min="8452" max="8452" width="48.6640625" customWidth="1"/>
-    <col min="8453" max="8453" width="19.88671875" customWidth="1"/>
-    <col min="8702" max="8702" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8703" max="8703" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="24.88671875" customWidth="1"/>
-    <col min="8705" max="8705" width="43.5546875" customWidth="1"/>
-    <col min="8706" max="8706" width="19.44140625" customWidth="1"/>
-    <col min="8707" max="8707" width="8.88671875" customWidth="1"/>
-    <col min="8708" max="8708" width="48.6640625" customWidth="1"/>
-    <col min="8709" max="8709" width="19.88671875" customWidth="1"/>
-    <col min="8958" max="8958" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8959" max="8959" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="24.88671875" customWidth="1"/>
-    <col min="8961" max="8961" width="43.5546875" customWidth="1"/>
-    <col min="8962" max="8962" width="19.44140625" customWidth="1"/>
-    <col min="8963" max="8963" width="8.88671875" customWidth="1"/>
-    <col min="8964" max="8964" width="48.6640625" customWidth="1"/>
-    <col min="8965" max="8965" width="19.88671875" customWidth="1"/>
-    <col min="9214" max="9214" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9215" max="9215" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="24.88671875" customWidth="1"/>
-    <col min="9217" max="9217" width="43.5546875" customWidth="1"/>
-    <col min="9218" max="9218" width="19.44140625" customWidth="1"/>
-    <col min="9219" max="9219" width="8.88671875" customWidth="1"/>
-    <col min="9220" max="9220" width="48.6640625" customWidth="1"/>
-    <col min="9221" max="9221" width="19.88671875" customWidth="1"/>
-    <col min="9470" max="9470" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9471" max="9471" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="24.88671875" customWidth="1"/>
-    <col min="9473" max="9473" width="43.5546875" customWidth="1"/>
-    <col min="9474" max="9474" width="19.44140625" customWidth="1"/>
-    <col min="9475" max="9475" width="8.88671875" customWidth="1"/>
-    <col min="9476" max="9476" width="48.6640625" customWidth="1"/>
-    <col min="9477" max="9477" width="19.88671875" customWidth="1"/>
-    <col min="9726" max="9726" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9727" max="9727" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="24.88671875" customWidth="1"/>
-    <col min="9729" max="9729" width="43.5546875" customWidth="1"/>
-    <col min="9730" max="9730" width="19.44140625" customWidth="1"/>
-    <col min="9731" max="9731" width="8.88671875" customWidth="1"/>
-    <col min="9732" max="9732" width="48.6640625" customWidth="1"/>
-    <col min="9733" max="9733" width="19.88671875" customWidth="1"/>
-    <col min="9982" max="9982" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9983" max="9983" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="24.88671875" customWidth="1"/>
-    <col min="9985" max="9985" width="43.5546875" customWidth="1"/>
-    <col min="9986" max="9986" width="19.44140625" customWidth="1"/>
-    <col min="9987" max="9987" width="8.88671875" customWidth="1"/>
-    <col min="9988" max="9988" width="48.6640625" customWidth="1"/>
-    <col min="9989" max="9989" width="19.88671875" customWidth="1"/>
-    <col min="10238" max="10238" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10239" max="10239" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="24.88671875" customWidth="1"/>
-    <col min="10241" max="10241" width="43.5546875" customWidth="1"/>
-    <col min="10242" max="10242" width="19.44140625" customWidth="1"/>
-    <col min="10243" max="10243" width="8.88671875" customWidth="1"/>
-    <col min="10244" max="10244" width="48.6640625" customWidth="1"/>
-    <col min="10245" max="10245" width="19.88671875" customWidth="1"/>
-    <col min="10494" max="10494" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10495" max="10495" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="24.88671875" customWidth="1"/>
-    <col min="10497" max="10497" width="43.5546875" customWidth="1"/>
-    <col min="10498" max="10498" width="19.44140625" customWidth="1"/>
-    <col min="10499" max="10499" width="8.88671875" customWidth="1"/>
-    <col min="10500" max="10500" width="48.6640625" customWidth="1"/>
-    <col min="10501" max="10501" width="19.88671875" customWidth="1"/>
-    <col min="10750" max="10750" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10751" max="10751" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="24.88671875" customWidth="1"/>
-    <col min="10753" max="10753" width="43.5546875" customWidth="1"/>
-    <col min="10754" max="10754" width="19.44140625" customWidth="1"/>
-    <col min="10755" max="10755" width="8.88671875" customWidth="1"/>
-    <col min="10756" max="10756" width="48.6640625" customWidth="1"/>
-    <col min="10757" max="10757" width="19.88671875" customWidth="1"/>
-    <col min="11006" max="11006" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11007" max="11007" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="24.88671875" customWidth="1"/>
-    <col min="11009" max="11009" width="43.5546875" customWidth="1"/>
-    <col min="11010" max="11010" width="19.44140625" customWidth="1"/>
-    <col min="11011" max="11011" width="8.88671875" customWidth="1"/>
-    <col min="11012" max="11012" width="48.6640625" customWidth="1"/>
-    <col min="11013" max="11013" width="19.88671875" customWidth="1"/>
-    <col min="11262" max="11262" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11263" max="11263" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="24.88671875" customWidth="1"/>
-    <col min="11265" max="11265" width="43.5546875" customWidth="1"/>
-    <col min="11266" max="11266" width="19.44140625" customWidth="1"/>
-    <col min="11267" max="11267" width="8.88671875" customWidth="1"/>
-    <col min="11268" max="11268" width="48.6640625" customWidth="1"/>
-    <col min="11269" max="11269" width="19.88671875" customWidth="1"/>
-    <col min="11518" max="11518" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11519" max="11519" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="24.88671875" customWidth="1"/>
-    <col min="11521" max="11521" width="43.5546875" customWidth="1"/>
-    <col min="11522" max="11522" width="19.44140625" customWidth="1"/>
-    <col min="11523" max="11523" width="8.88671875" customWidth="1"/>
-    <col min="11524" max="11524" width="48.6640625" customWidth="1"/>
-    <col min="11525" max="11525" width="19.88671875" customWidth="1"/>
-    <col min="11774" max="11774" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11775" max="11775" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="24.88671875" customWidth="1"/>
-    <col min="11777" max="11777" width="43.5546875" customWidth="1"/>
-    <col min="11778" max="11778" width="19.44140625" customWidth="1"/>
-    <col min="11779" max="11779" width="8.88671875" customWidth="1"/>
-    <col min="11780" max="11780" width="48.6640625" customWidth="1"/>
-    <col min="11781" max="11781" width="19.88671875" customWidth="1"/>
-    <col min="12030" max="12030" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12031" max="12031" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="24.88671875" customWidth="1"/>
-    <col min="12033" max="12033" width="43.5546875" customWidth="1"/>
-    <col min="12034" max="12034" width="19.44140625" customWidth="1"/>
-    <col min="12035" max="12035" width="8.88671875" customWidth="1"/>
-    <col min="12036" max="12036" width="48.6640625" customWidth="1"/>
-    <col min="12037" max="12037" width="19.88671875" customWidth="1"/>
-    <col min="12286" max="12286" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12287" max="12287" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="24.88671875" customWidth="1"/>
-    <col min="12289" max="12289" width="43.5546875" customWidth="1"/>
-    <col min="12290" max="12290" width="19.44140625" customWidth="1"/>
-    <col min="12291" max="12291" width="8.88671875" customWidth="1"/>
-    <col min="12292" max="12292" width="48.6640625" customWidth="1"/>
-    <col min="12293" max="12293" width="19.88671875" customWidth="1"/>
-    <col min="12542" max="12542" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12543" max="12543" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="24.88671875" customWidth="1"/>
-    <col min="12545" max="12545" width="43.5546875" customWidth="1"/>
-    <col min="12546" max="12546" width="19.44140625" customWidth="1"/>
-    <col min="12547" max="12547" width="8.88671875" customWidth="1"/>
-    <col min="12548" max="12548" width="48.6640625" customWidth="1"/>
-    <col min="12549" max="12549" width="19.88671875" customWidth="1"/>
-    <col min="12798" max="12798" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12799" max="12799" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="24.88671875" customWidth="1"/>
-    <col min="12801" max="12801" width="43.5546875" customWidth="1"/>
-    <col min="12802" max="12802" width="19.44140625" customWidth="1"/>
-    <col min="12803" max="12803" width="8.88671875" customWidth="1"/>
-    <col min="12804" max="12804" width="48.6640625" customWidth="1"/>
-    <col min="12805" max="12805" width="19.88671875" customWidth="1"/>
-    <col min="13054" max="13054" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13055" max="13055" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="24.88671875" customWidth="1"/>
-    <col min="13057" max="13057" width="43.5546875" customWidth="1"/>
-    <col min="13058" max="13058" width="19.44140625" customWidth="1"/>
-    <col min="13059" max="13059" width="8.88671875" customWidth="1"/>
-    <col min="13060" max="13060" width="48.6640625" customWidth="1"/>
-    <col min="13061" max="13061" width="19.88671875" customWidth="1"/>
-    <col min="13310" max="13310" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13311" max="13311" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="24.88671875" customWidth="1"/>
-    <col min="13313" max="13313" width="43.5546875" customWidth="1"/>
-    <col min="13314" max="13314" width="19.44140625" customWidth="1"/>
-    <col min="13315" max="13315" width="8.88671875" customWidth="1"/>
-    <col min="13316" max="13316" width="48.6640625" customWidth="1"/>
-    <col min="13317" max="13317" width="19.88671875" customWidth="1"/>
-    <col min="13566" max="13566" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13567" max="13567" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="24.88671875" customWidth="1"/>
-    <col min="13569" max="13569" width="43.5546875" customWidth="1"/>
-    <col min="13570" max="13570" width="19.44140625" customWidth="1"/>
-    <col min="13571" max="13571" width="8.88671875" customWidth="1"/>
-    <col min="13572" max="13572" width="48.6640625" customWidth="1"/>
-    <col min="13573" max="13573" width="19.88671875" customWidth="1"/>
-    <col min="13822" max="13822" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13823" max="13823" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="24.88671875" customWidth="1"/>
-    <col min="13825" max="13825" width="43.5546875" customWidth="1"/>
-    <col min="13826" max="13826" width="19.44140625" customWidth="1"/>
-    <col min="13827" max="13827" width="8.88671875" customWidth="1"/>
-    <col min="13828" max="13828" width="48.6640625" customWidth="1"/>
-    <col min="13829" max="13829" width="19.88671875" customWidth="1"/>
-    <col min="14078" max="14078" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14079" max="14079" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="24.88671875" customWidth="1"/>
-    <col min="14081" max="14081" width="43.5546875" customWidth="1"/>
-    <col min="14082" max="14082" width="19.44140625" customWidth="1"/>
-    <col min="14083" max="14083" width="8.88671875" customWidth="1"/>
-    <col min="14084" max="14084" width="48.6640625" customWidth="1"/>
-    <col min="14085" max="14085" width="19.88671875" customWidth="1"/>
-    <col min="14334" max="14334" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14335" max="14335" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="24.88671875" customWidth="1"/>
-    <col min="14337" max="14337" width="43.5546875" customWidth="1"/>
-    <col min="14338" max="14338" width="19.44140625" customWidth="1"/>
-    <col min="14339" max="14339" width="8.88671875" customWidth="1"/>
-    <col min="14340" max="14340" width="48.6640625" customWidth="1"/>
-    <col min="14341" max="14341" width="19.88671875" customWidth="1"/>
-    <col min="14590" max="14590" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14591" max="14591" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="24.88671875" customWidth="1"/>
-    <col min="14593" max="14593" width="43.5546875" customWidth="1"/>
-    <col min="14594" max="14594" width="19.44140625" customWidth="1"/>
-    <col min="14595" max="14595" width="8.88671875" customWidth="1"/>
-    <col min="14596" max="14596" width="48.6640625" customWidth="1"/>
-    <col min="14597" max="14597" width="19.88671875" customWidth="1"/>
-    <col min="14846" max="14846" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14847" max="14847" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="24.88671875" customWidth="1"/>
-    <col min="14849" max="14849" width="43.5546875" customWidth="1"/>
-    <col min="14850" max="14850" width="19.44140625" customWidth="1"/>
-    <col min="14851" max="14851" width="8.88671875" customWidth="1"/>
-    <col min="14852" max="14852" width="48.6640625" customWidth="1"/>
-    <col min="14853" max="14853" width="19.88671875" customWidth="1"/>
-    <col min="15102" max="15102" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15103" max="15103" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="24.88671875" customWidth="1"/>
-    <col min="15105" max="15105" width="43.5546875" customWidth="1"/>
-    <col min="15106" max="15106" width="19.44140625" customWidth="1"/>
-    <col min="15107" max="15107" width="8.88671875" customWidth="1"/>
-    <col min="15108" max="15108" width="48.6640625" customWidth="1"/>
-    <col min="15109" max="15109" width="19.88671875" customWidth="1"/>
-    <col min="15358" max="15358" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15359" max="15359" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="24.88671875" customWidth="1"/>
-    <col min="15361" max="15361" width="43.5546875" customWidth="1"/>
-    <col min="15362" max="15362" width="19.44140625" customWidth="1"/>
-    <col min="15363" max="15363" width="8.88671875" customWidth="1"/>
-    <col min="15364" max="15364" width="48.6640625" customWidth="1"/>
-    <col min="15365" max="15365" width="19.88671875" customWidth="1"/>
-    <col min="15614" max="15614" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15615" max="15615" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="24.88671875" customWidth="1"/>
-    <col min="15617" max="15617" width="43.5546875" customWidth="1"/>
-    <col min="15618" max="15618" width="19.44140625" customWidth="1"/>
-    <col min="15619" max="15619" width="8.88671875" customWidth="1"/>
-    <col min="15620" max="15620" width="48.6640625" customWidth="1"/>
-    <col min="15621" max="15621" width="19.88671875" customWidth="1"/>
-    <col min="15870" max="15870" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15871" max="15871" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="24.88671875" customWidth="1"/>
-    <col min="15873" max="15873" width="43.5546875" customWidth="1"/>
-    <col min="15874" max="15874" width="19.44140625" customWidth="1"/>
-    <col min="15875" max="15875" width="8.88671875" customWidth="1"/>
-    <col min="15876" max="15876" width="48.6640625" customWidth="1"/>
-    <col min="15877" max="15877" width="19.88671875" customWidth="1"/>
-    <col min="16126" max="16126" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16127" max="16127" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="24.88671875" customWidth="1"/>
-    <col min="16129" max="16129" width="43.5546875" customWidth="1"/>
-    <col min="16130" max="16130" width="19.44140625" customWidth="1"/>
-    <col min="16131" max="16131" width="8.88671875" customWidth="1"/>
-    <col min="16132" max="16132" width="48.6640625" customWidth="1"/>
-    <col min="16133" max="16133" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="24.90625" customWidth="1"/>
+    <col min="257" max="257" width="43.54296875" customWidth="1"/>
+    <col min="258" max="258" width="19.453125" customWidth="1"/>
+    <col min="259" max="259" width="8.90625" customWidth="1"/>
+    <col min="260" max="260" width="48.6328125" customWidth="1"/>
+    <col min="261" max="261" width="19.90625" customWidth="1"/>
+    <col min="510" max="510" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="24.90625" customWidth="1"/>
+    <col min="513" max="513" width="43.54296875" customWidth="1"/>
+    <col min="514" max="514" width="19.453125" customWidth="1"/>
+    <col min="515" max="515" width="8.90625" customWidth="1"/>
+    <col min="516" max="516" width="48.6328125" customWidth="1"/>
+    <col min="517" max="517" width="19.90625" customWidth="1"/>
+    <col min="766" max="766" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="24.90625" customWidth="1"/>
+    <col min="769" max="769" width="43.54296875" customWidth="1"/>
+    <col min="770" max="770" width="19.453125" customWidth="1"/>
+    <col min="771" max="771" width="8.90625" customWidth="1"/>
+    <col min="772" max="772" width="48.6328125" customWidth="1"/>
+    <col min="773" max="773" width="19.90625" customWidth="1"/>
+    <col min="1022" max="1022" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="24.90625" customWidth="1"/>
+    <col min="1025" max="1025" width="43.54296875" customWidth="1"/>
+    <col min="1026" max="1026" width="19.453125" customWidth="1"/>
+    <col min="1027" max="1027" width="8.90625" customWidth="1"/>
+    <col min="1028" max="1028" width="48.6328125" customWidth="1"/>
+    <col min="1029" max="1029" width="19.90625" customWidth="1"/>
+    <col min="1278" max="1278" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="24.90625" customWidth="1"/>
+    <col min="1281" max="1281" width="43.54296875" customWidth="1"/>
+    <col min="1282" max="1282" width="19.453125" customWidth="1"/>
+    <col min="1283" max="1283" width="8.90625" customWidth="1"/>
+    <col min="1284" max="1284" width="48.6328125" customWidth="1"/>
+    <col min="1285" max="1285" width="19.90625" customWidth="1"/>
+    <col min="1534" max="1534" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="24.90625" customWidth="1"/>
+    <col min="1537" max="1537" width="43.54296875" customWidth="1"/>
+    <col min="1538" max="1538" width="19.453125" customWidth="1"/>
+    <col min="1539" max="1539" width="8.90625" customWidth="1"/>
+    <col min="1540" max="1540" width="48.6328125" customWidth="1"/>
+    <col min="1541" max="1541" width="19.90625" customWidth="1"/>
+    <col min="1790" max="1790" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="24.90625" customWidth="1"/>
+    <col min="1793" max="1793" width="43.54296875" customWidth="1"/>
+    <col min="1794" max="1794" width="19.453125" customWidth="1"/>
+    <col min="1795" max="1795" width="8.90625" customWidth="1"/>
+    <col min="1796" max="1796" width="48.6328125" customWidth="1"/>
+    <col min="1797" max="1797" width="19.90625" customWidth="1"/>
+    <col min="2046" max="2046" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="24.90625" customWidth="1"/>
+    <col min="2049" max="2049" width="43.54296875" customWidth="1"/>
+    <col min="2050" max="2050" width="19.453125" customWidth="1"/>
+    <col min="2051" max="2051" width="8.90625" customWidth="1"/>
+    <col min="2052" max="2052" width="48.6328125" customWidth="1"/>
+    <col min="2053" max="2053" width="19.90625" customWidth="1"/>
+    <col min="2302" max="2302" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="24.90625" customWidth="1"/>
+    <col min="2305" max="2305" width="43.54296875" customWidth="1"/>
+    <col min="2306" max="2306" width="19.453125" customWidth="1"/>
+    <col min="2307" max="2307" width="8.90625" customWidth="1"/>
+    <col min="2308" max="2308" width="48.6328125" customWidth="1"/>
+    <col min="2309" max="2309" width="19.90625" customWidth="1"/>
+    <col min="2558" max="2558" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="24.90625" customWidth="1"/>
+    <col min="2561" max="2561" width="43.54296875" customWidth="1"/>
+    <col min="2562" max="2562" width="19.453125" customWidth="1"/>
+    <col min="2563" max="2563" width="8.90625" customWidth="1"/>
+    <col min="2564" max="2564" width="48.6328125" customWidth="1"/>
+    <col min="2565" max="2565" width="19.90625" customWidth="1"/>
+    <col min="2814" max="2814" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="24.90625" customWidth="1"/>
+    <col min="2817" max="2817" width="43.54296875" customWidth="1"/>
+    <col min="2818" max="2818" width="19.453125" customWidth="1"/>
+    <col min="2819" max="2819" width="8.90625" customWidth="1"/>
+    <col min="2820" max="2820" width="48.6328125" customWidth="1"/>
+    <col min="2821" max="2821" width="19.90625" customWidth="1"/>
+    <col min="3070" max="3070" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="24.90625" customWidth="1"/>
+    <col min="3073" max="3073" width="43.54296875" customWidth="1"/>
+    <col min="3074" max="3074" width="19.453125" customWidth="1"/>
+    <col min="3075" max="3075" width="8.90625" customWidth="1"/>
+    <col min="3076" max="3076" width="48.6328125" customWidth="1"/>
+    <col min="3077" max="3077" width="19.90625" customWidth="1"/>
+    <col min="3326" max="3326" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="24.90625" customWidth="1"/>
+    <col min="3329" max="3329" width="43.54296875" customWidth="1"/>
+    <col min="3330" max="3330" width="19.453125" customWidth="1"/>
+    <col min="3331" max="3331" width="8.90625" customWidth="1"/>
+    <col min="3332" max="3332" width="48.6328125" customWidth="1"/>
+    <col min="3333" max="3333" width="19.90625" customWidth="1"/>
+    <col min="3582" max="3582" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="24.90625" customWidth="1"/>
+    <col min="3585" max="3585" width="43.54296875" customWidth="1"/>
+    <col min="3586" max="3586" width="19.453125" customWidth="1"/>
+    <col min="3587" max="3587" width="8.90625" customWidth="1"/>
+    <col min="3588" max="3588" width="48.6328125" customWidth="1"/>
+    <col min="3589" max="3589" width="19.90625" customWidth="1"/>
+    <col min="3838" max="3838" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="24.90625" customWidth="1"/>
+    <col min="3841" max="3841" width="43.54296875" customWidth="1"/>
+    <col min="3842" max="3842" width="19.453125" customWidth="1"/>
+    <col min="3843" max="3843" width="8.90625" customWidth="1"/>
+    <col min="3844" max="3844" width="48.6328125" customWidth="1"/>
+    <col min="3845" max="3845" width="19.90625" customWidth="1"/>
+    <col min="4094" max="4094" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="24.90625" customWidth="1"/>
+    <col min="4097" max="4097" width="43.54296875" customWidth="1"/>
+    <col min="4098" max="4098" width="19.453125" customWidth="1"/>
+    <col min="4099" max="4099" width="8.90625" customWidth="1"/>
+    <col min="4100" max="4100" width="48.6328125" customWidth="1"/>
+    <col min="4101" max="4101" width="19.90625" customWidth="1"/>
+    <col min="4350" max="4350" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="24.90625" customWidth="1"/>
+    <col min="4353" max="4353" width="43.54296875" customWidth="1"/>
+    <col min="4354" max="4354" width="19.453125" customWidth="1"/>
+    <col min="4355" max="4355" width="8.90625" customWidth="1"/>
+    <col min="4356" max="4356" width="48.6328125" customWidth="1"/>
+    <col min="4357" max="4357" width="19.90625" customWidth="1"/>
+    <col min="4606" max="4606" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="24.90625" customWidth="1"/>
+    <col min="4609" max="4609" width="43.54296875" customWidth="1"/>
+    <col min="4610" max="4610" width="19.453125" customWidth="1"/>
+    <col min="4611" max="4611" width="8.90625" customWidth="1"/>
+    <col min="4612" max="4612" width="48.6328125" customWidth="1"/>
+    <col min="4613" max="4613" width="19.90625" customWidth="1"/>
+    <col min="4862" max="4862" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="24.90625" customWidth="1"/>
+    <col min="4865" max="4865" width="43.54296875" customWidth="1"/>
+    <col min="4866" max="4866" width="19.453125" customWidth="1"/>
+    <col min="4867" max="4867" width="8.90625" customWidth="1"/>
+    <col min="4868" max="4868" width="48.6328125" customWidth="1"/>
+    <col min="4869" max="4869" width="19.90625" customWidth="1"/>
+    <col min="5118" max="5118" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="24.90625" customWidth="1"/>
+    <col min="5121" max="5121" width="43.54296875" customWidth="1"/>
+    <col min="5122" max="5122" width="19.453125" customWidth="1"/>
+    <col min="5123" max="5123" width="8.90625" customWidth="1"/>
+    <col min="5124" max="5124" width="48.6328125" customWidth="1"/>
+    <col min="5125" max="5125" width="19.90625" customWidth="1"/>
+    <col min="5374" max="5374" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="24.90625" customWidth="1"/>
+    <col min="5377" max="5377" width="43.54296875" customWidth="1"/>
+    <col min="5378" max="5378" width="19.453125" customWidth="1"/>
+    <col min="5379" max="5379" width="8.90625" customWidth="1"/>
+    <col min="5380" max="5380" width="48.6328125" customWidth="1"/>
+    <col min="5381" max="5381" width="19.90625" customWidth="1"/>
+    <col min="5630" max="5630" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="24.90625" customWidth="1"/>
+    <col min="5633" max="5633" width="43.54296875" customWidth="1"/>
+    <col min="5634" max="5634" width="19.453125" customWidth="1"/>
+    <col min="5635" max="5635" width="8.90625" customWidth="1"/>
+    <col min="5636" max="5636" width="48.6328125" customWidth="1"/>
+    <col min="5637" max="5637" width="19.90625" customWidth="1"/>
+    <col min="5886" max="5886" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="24.90625" customWidth="1"/>
+    <col min="5889" max="5889" width="43.54296875" customWidth="1"/>
+    <col min="5890" max="5890" width="19.453125" customWidth="1"/>
+    <col min="5891" max="5891" width="8.90625" customWidth="1"/>
+    <col min="5892" max="5892" width="48.6328125" customWidth="1"/>
+    <col min="5893" max="5893" width="19.90625" customWidth="1"/>
+    <col min="6142" max="6142" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="24.90625" customWidth="1"/>
+    <col min="6145" max="6145" width="43.54296875" customWidth="1"/>
+    <col min="6146" max="6146" width="19.453125" customWidth="1"/>
+    <col min="6147" max="6147" width="8.90625" customWidth="1"/>
+    <col min="6148" max="6148" width="48.6328125" customWidth="1"/>
+    <col min="6149" max="6149" width="19.90625" customWidth="1"/>
+    <col min="6398" max="6398" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="24.90625" customWidth="1"/>
+    <col min="6401" max="6401" width="43.54296875" customWidth="1"/>
+    <col min="6402" max="6402" width="19.453125" customWidth="1"/>
+    <col min="6403" max="6403" width="8.90625" customWidth="1"/>
+    <col min="6404" max="6404" width="48.6328125" customWidth="1"/>
+    <col min="6405" max="6405" width="19.90625" customWidth="1"/>
+    <col min="6654" max="6654" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="24.90625" customWidth="1"/>
+    <col min="6657" max="6657" width="43.54296875" customWidth="1"/>
+    <col min="6658" max="6658" width="19.453125" customWidth="1"/>
+    <col min="6659" max="6659" width="8.90625" customWidth="1"/>
+    <col min="6660" max="6660" width="48.6328125" customWidth="1"/>
+    <col min="6661" max="6661" width="19.90625" customWidth="1"/>
+    <col min="6910" max="6910" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="24.90625" customWidth="1"/>
+    <col min="6913" max="6913" width="43.54296875" customWidth="1"/>
+    <col min="6914" max="6914" width="19.453125" customWidth="1"/>
+    <col min="6915" max="6915" width="8.90625" customWidth="1"/>
+    <col min="6916" max="6916" width="48.6328125" customWidth="1"/>
+    <col min="6917" max="6917" width="19.90625" customWidth="1"/>
+    <col min="7166" max="7166" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="24.90625" customWidth="1"/>
+    <col min="7169" max="7169" width="43.54296875" customWidth="1"/>
+    <col min="7170" max="7170" width="19.453125" customWidth="1"/>
+    <col min="7171" max="7171" width="8.90625" customWidth="1"/>
+    <col min="7172" max="7172" width="48.6328125" customWidth="1"/>
+    <col min="7173" max="7173" width="19.90625" customWidth="1"/>
+    <col min="7422" max="7422" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="24.90625" customWidth="1"/>
+    <col min="7425" max="7425" width="43.54296875" customWidth="1"/>
+    <col min="7426" max="7426" width="19.453125" customWidth="1"/>
+    <col min="7427" max="7427" width="8.90625" customWidth="1"/>
+    <col min="7428" max="7428" width="48.6328125" customWidth="1"/>
+    <col min="7429" max="7429" width="19.90625" customWidth="1"/>
+    <col min="7678" max="7678" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="24.90625" customWidth="1"/>
+    <col min="7681" max="7681" width="43.54296875" customWidth="1"/>
+    <col min="7682" max="7682" width="19.453125" customWidth="1"/>
+    <col min="7683" max="7683" width="8.90625" customWidth="1"/>
+    <col min="7684" max="7684" width="48.6328125" customWidth="1"/>
+    <col min="7685" max="7685" width="19.90625" customWidth="1"/>
+    <col min="7934" max="7934" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="24.90625" customWidth="1"/>
+    <col min="7937" max="7937" width="43.54296875" customWidth="1"/>
+    <col min="7938" max="7938" width="19.453125" customWidth="1"/>
+    <col min="7939" max="7939" width="8.90625" customWidth="1"/>
+    <col min="7940" max="7940" width="48.6328125" customWidth="1"/>
+    <col min="7941" max="7941" width="19.90625" customWidth="1"/>
+    <col min="8190" max="8190" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="24.90625" customWidth="1"/>
+    <col min="8193" max="8193" width="43.54296875" customWidth="1"/>
+    <col min="8194" max="8194" width="19.453125" customWidth="1"/>
+    <col min="8195" max="8195" width="8.90625" customWidth="1"/>
+    <col min="8196" max="8196" width="48.6328125" customWidth="1"/>
+    <col min="8197" max="8197" width="19.90625" customWidth="1"/>
+    <col min="8446" max="8446" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="24.90625" customWidth="1"/>
+    <col min="8449" max="8449" width="43.54296875" customWidth="1"/>
+    <col min="8450" max="8450" width="19.453125" customWidth="1"/>
+    <col min="8451" max="8451" width="8.90625" customWidth="1"/>
+    <col min="8452" max="8452" width="48.6328125" customWidth="1"/>
+    <col min="8453" max="8453" width="19.90625" customWidth="1"/>
+    <col min="8702" max="8702" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="24.90625" customWidth="1"/>
+    <col min="8705" max="8705" width="43.54296875" customWidth="1"/>
+    <col min="8706" max="8706" width="19.453125" customWidth="1"/>
+    <col min="8707" max="8707" width="8.90625" customWidth="1"/>
+    <col min="8708" max="8708" width="48.6328125" customWidth="1"/>
+    <col min="8709" max="8709" width="19.90625" customWidth="1"/>
+    <col min="8958" max="8958" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="24.90625" customWidth="1"/>
+    <col min="8961" max="8961" width="43.54296875" customWidth="1"/>
+    <col min="8962" max="8962" width="19.453125" customWidth="1"/>
+    <col min="8963" max="8963" width="8.90625" customWidth="1"/>
+    <col min="8964" max="8964" width="48.6328125" customWidth="1"/>
+    <col min="8965" max="8965" width="19.90625" customWidth="1"/>
+    <col min="9214" max="9214" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="24.90625" customWidth="1"/>
+    <col min="9217" max="9217" width="43.54296875" customWidth="1"/>
+    <col min="9218" max="9218" width="19.453125" customWidth="1"/>
+    <col min="9219" max="9219" width="8.90625" customWidth="1"/>
+    <col min="9220" max="9220" width="48.6328125" customWidth="1"/>
+    <col min="9221" max="9221" width="19.90625" customWidth="1"/>
+    <col min="9470" max="9470" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="24.90625" customWidth="1"/>
+    <col min="9473" max="9473" width="43.54296875" customWidth="1"/>
+    <col min="9474" max="9474" width="19.453125" customWidth="1"/>
+    <col min="9475" max="9475" width="8.90625" customWidth="1"/>
+    <col min="9476" max="9476" width="48.6328125" customWidth="1"/>
+    <col min="9477" max="9477" width="19.90625" customWidth="1"/>
+    <col min="9726" max="9726" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="24.90625" customWidth="1"/>
+    <col min="9729" max="9729" width="43.54296875" customWidth="1"/>
+    <col min="9730" max="9730" width="19.453125" customWidth="1"/>
+    <col min="9731" max="9731" width="8.90625" customWidth="1"/>
+    <col min="9732" max="9732" width="48.6328125" customWidth="1"/>
+    <col min="9733" max="9733" width="19.90625" customWidth="1"/>
+    <col min="9982" max="9982" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="24.90625" customWidth="1"/>
+    <col min="9985" max="9985" width="43.54296875" customWidth="1"/>
+    <col min="9986" max="9986" width="19.453125" customWidth="1"/>
+    <col min="9987" max="9987" width="8.90625" customWidth="1"/>
+    <col min="9988" max="9988" width="48.6328125" customWidth="1"/>
+    <col min="9989" max="9989" width="19.90625" customWidth="1"/>
+    <col min="10238" max="10238" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="24.90625" customWidth="1"/>
+    <col min="10241" max="10241" width="43.54296875" customWidth="1"/>
+    <col min="10242" max="10242" width="19.453125" customWidth="1"/>
+    <col min="10243" max="10243" width="8.90625" customWidth="1"/>
+    <col min="10244" max="10244" width="48.6328125" customWidth="1"/>
+    <col min="10245" max="10245" width="19.90625" customWidth="1"/>
+    <col min="10494" max="10494" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="24.90625" customWidth="1"/>
+    <col min="10497" max="10497" width="43.54296875" customWidth="1"/>
+    <col min="10498" max="10498" width="19.453125" customWidth="1"/>
+    <col min="10499" max="10499" width="8.90625" customWidth="1"/>
+    <col min="10500" max="10500" width="48.6328125" customWidth="1"/>
+    <col min="10501" max="10501" width="19.90625" customWidth="1"/>
+    <col min="10750" max="10750" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="24.90625" customWidth="1"/>
+    <col min="10753" max="10753" width="43.54296875" customWidth="1"/>
+    <col min="10754" max="10754" width="19.453125" customWidth="1"/>
+    <col min="10755" max="10755" width="8.90625" customWidth="1"/>
+    <col min="10756" max="10756" width="48.6328125" customWidth="1"/>
+    <col min="10757" max="10757" width="19.90625" customWidth="1"/>
+    <col min="11006" max="11006" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="24.90625" customWidth="1"/>
+    <col min="11009" max="11009" width="43.54296875" customWidth="1"/>
+    <col min="11010" max="11010" width="19.453125" customWidth="1"/>
+    <col min="11011" max="11011" width="8.90625" customWidth="1"/>
+    <col min="11012" max="11012" width="48.6328125" customWidth="1"/>
+    <col min="11013" max="11013" width="19.90625" customWidth="1"/>
+    <col min="11262" max="11262" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="24.90625" customWidth="1"/>
+    <col min="11265" max="11265" width="43.54296875" customWidth="1"/>
+    <col min="11266" max="11266" width="19.453125" customWidth="1"/>
+    <col min="11267" max="11267" width="8.90625" customWidth="1"/>
+    <col min="11268" max="11268" width="48.6328125" customWidth="1"/>
+    <col min="11269" max="11269" width="19.90625" customWidth="1"/>
+    <col min="11518" max="11518" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="24.90625" customWidth="1"/>
+    <col min="11521" max="11521" width="43.54296875" customWidth="1"/>
+    <col min="11522" max="11522" width="19.453125" customWidth="1"/>
+    <col min="11523" max="11523" width="8.90625" customWidth="1"/>
+    <col min="11524" max="11524" width="48.6328125" customWidth="1"/>
+    <col min="11525" max="11525" width="19.90625" customWidth="1"/>
+    <col min="11774" max="11774" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="24.90625" customWidth="1"/>
+    <col min="11777" max="11777" width="43.54296875" customWidth="1"/>
+    <col min="11778" max="11778" width="19.453125" customWidth="1"/>
+    <col min="11779" max="11779" width="8.90625" customWidth="1"/>
+    <col min="11780" max="11780" width="48.6328125" customWidth="1"/>
+    <col min="11781" max="11781" width="19.90625" customWidth="1"/>
+    <col min="12030" max="12030" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="24.90625" customWidth="1"/>
+    <col min="12033" max="12033" width="43.54296875" customWidth="1"/>
+    <col min="12034" max="12034" width="19.453125" customWidth="1"/>
+    <col min="12035" max="12035" width="8.90625" customWidth="1"/>
+    <col min="12036" max="12036" width="48.6328125" customWidth="1"/>
+    <col min="12037" max="12037" width="19.90625" customWidth="1"/>
+    <col min="12286" max="12286" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="24.90625" customWidth="1"/>
+    <col min="12289" max="12289" width="43.54296875" customWidth="1"/>
+    <col min="12290" max="12290" width="19.453125" customWidth="1"/>
+    <col min="12291" max="12291" width="8.90625" customWidth="1"/>
+    <col min="12292" max="12292" width="48.6328125" customWidth="1"/>
+    <col min="12293" max="12293" width="19.90625" customWidth="1"/>
+    <col min="12542" max="12542" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="24.90625" customWidth="1"/>
+    <col min="12545" max="12545" width="43.54296875" customWidth="1"/>
+    <col min="12546" max="12546" width="19.453125" customWidth="1"/>
+    <col min="12547" max="12547" width="8.90625" customWidth="1"/>
+    <col min="12548" max="12548" width="48.6328125" customWidth="1"/>
+    <col min="12549" max="12549" width="19.90625" customWidth="1"/>
+    <col min="12798" max="12798" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="24.90625" customWidth="1"/>
+    <col min="12801" max="12801" width="43.54296875" customWidth="1"/>
+    <col min="12802" max="12802" width="19.453125" customWidth="1"/>
+    <col min="12803" max="12803" width="8.90625" customWidth="1"/>
+    <col min="12804" max="12804" width="48.6328125" customWidth="1"/>
+    <col min="12805" max="12805" width="19.90625" customWidth="1"/>
+    <col min="13054" max="13054" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="24.90625" customWidth="1"/>
+    <col min="13057" max="13057" width="43.54296875" customWidth="1"/>
+    <col min="13058" max="13058" width="19.453125" customWidth="1"/>
+    <col min="13059" max="13059" width="8.90625" customWidth="1"/>
+    <col min="13060" max="13060" width="48.6328125" customWidth="1"/>
+    <col min="13061" max="13061" width="19.90625" customWidth="1"/>
+    <col min="13310" max="13310" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="24.90625" customWidth="1"/>
+    <col min="13313" max="13313" width="43.54296875" customWidth="1"/>
+    <col min="13314" max="13314" width="19.453125" customWidth="1"/>
+    <col min="13315" max="13315" width="8.90625" customWidth="1"/>
+    <col min="13316" max="13316" width="48.6328125" customWidth="1"/>
+    <col min="13317" max="13317" width="19.90625" customWidth="1"/>
+    <col min="13566" max="13566" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="24.90625" customWidth="1"/>
+    <col min="13569" max="13569" width="43.54296875" customWidth="1"/>
+    <col min="13570" max="13570" width="19.453125" customWidth="1"/>
+    <col min="13571" max="13571" width="8.90625" customWidth="1"/>
+    <col min="13572" max="13572" width="48.6328125" customWidth="1"/>
+    <col min="13573" max="13573" width="19.90625" customWidth="1"/>
+    <col min="13822" max="13822" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="24.90625" customWidth="1"/>
+    <col min="13825" max="13825" width="43.54296875" customWidth="1"/>
+    <col min="13826" max="13826" width="19.453125" customWidth="1"/>
+    <col min="13827" max="13827" width="8.90625" customWidth="1"/>
+    <col min="13828" max="13828" width="48.6328125" customWidth="1"/>
+    <col min="13829" max="13829" width="19.90625" customWidth="1"/>
+    <col min="14078" max="14078" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="24.90625" customWidth="1"/>
+    <col min="14081" max="14081" width="43.54296875" customWidth="1"/>
+    <col min="14082" max="14082" width="19.453125" customWidth="1"/>
+    <col min="14083" max="14083" width="8.90625" customWidth="1"/>
+    <col min="14084" max="14084" width="48.6328125" customWidth="1"/>
+    <col min="14085" max="14085" width="19.90625" customWidth="1"/>
+    <col min="14334" max="14334" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="24.90625" customWidth="1"/>
+    <col min="14337" max="14337" width="43.54296875" customWidth="1"/>
+    <col min="14338" max="14338" width="19.453125" customWidth="1"/>
+    <col min="14339" max="14339" width="8.90625" customWidth="1"/>
+    <col min="14340" max="14340" width="48.6328125" customWidth="1"/>
+    <col min="14341" max="14341" width="19.90625" customWidth="1"/>
+    <col min="14590" max="14590" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="24.90625" customWidth="1"/>
+    <col min="14593" max="14593" width="43.54296875" customWidth="1"/>
+    <col min="14594" max="14594" width="19.453125" customWidth="1"/>
+    <col min="14595" max="14595" width="8.90625" customWidth="1"/>
+    <col min="14596" max="14596" width="48.6328125" customWidth="1"/>
+    <col min="14597" max="14597" width="19.90625" customWidth="1"/>
+    <col min="14846" max="14846" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="24.90625" customWidth="1"/>
+    <col min="14849" max="14849" width="43.54296875" customWidth="1"/>
+    <col min="14850" max="14850" width="19.453125" customWidth="1"/>
+    <col min="14851" max="14851" width="8.90625" customWidth="1"/>
+    <col min="14852" max="14852" width="48.6328125" customWidth="1"/>
+    <col min="14853" max="14853" width="19.90625" customWidth="1"/>
+    <col min="15102" max="15102" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="24.90625" customWidth="1"/>
+    <col min="15105" max="15105" width="43.54296875" customWidth="1"/>
+    <col min="15106" max="15106" width="19.453125" customWidth="1"/>
+    <col min="15107" max="15107" width="8.90625" customWidth="1"/>
+    <col min="15108" max="15108" width="48.6328125" customWidth="1"/>
+    <col min="15109" max="15109" width="19.90625" customWidth="1"/>
+    <col min="15358" max="15358" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="24.90625" customWidth="1"/>
+    <col min="15361" max="15361" width="43.54296875" customWidth="1"/>
+    <col min="15362" max="15362" width="19.453125" customWidth="1"/>
+    <col min="15363" max="15363" width="8.90625" customWidth="1"/>
+    <col min="15364" max="15364" width="48.6328125" customWidth="1"/>
+    <col min="15365" max="15365" width="19.90625" customWidth="1"/>
+    <col min="15614" max="15614" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="24.90625" customWidth="1"/>
+    <col min="15617" max="15617" width="43.54296875" customWidth="1"/>
+    <col min="15618" max="15618" width="19.453125" customWidth="1"/>
+    <col min="15619" max="15619" width="8.90625" customWidth="1"/>
+    <col min="15620" max="15620" width="48.6328125" customWidth="1"/>
+    <col min="15621" max="15621" width="19.90625" customWidth="1"/>
+    <col min="15870" max="15870" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="24.90625" customWidth="1"/>
+    <col min="15873" max="15873" width="43.54296875" customWidth="1"/>
+    <col min="15874" max="15874" width="19.453125" customWidth="1"/>
+    <col min="15875" max="15875" width="8.90625" customWidth="1"/>
+    <col min="15876" max="15876" width="48.6328125" customWidth="1"/>
+    <col min="15877" max="15877" width="19.90625" customWidth="1"/>
+    <col min="16126" max="16126" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="24.90625" customWidth="1"/>
+    <col min="16129" max="16129" width="43.54296875" customWidth="1"/>
+    <col min="16130" max="16130" width="19.453125" customWidth="1"/>
+    <col min="16131" max="16131" width="8.90625" customWidth="1"/>
+    <col min="16132" max="16132" width="48.6328125" customWidth="1"/>
+    <col min="16133" max="16133" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>339</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>409</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>417</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>407</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2477,15 +2497,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2494,29 +2514,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>474</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>474</v>
@@ -2528,12 +2548,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>474</v>
@@ -2545,12 +2565,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>474</v>
@@ -2562,12 +2582,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>474</v>
@@ -2579,12 +2599,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>474</v>
@@ -2596,12 +2616,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>474</v>
@@ -2613,12 +2633,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>474</v>
@@ -2630,12 +2650,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>474</v>
@@ -2647,46 +2667,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>419</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>474</v>
@@ -2698,12 +2718,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>474</v>
@@ -2715,15 +2735,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2732,46 +2752,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>411</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>474</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>474</v>
@@ -2783,12 +2803,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>474</v>
@@ -2800,12 +2820,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>474</v>
@@ -2817,12 +2837,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>474</v>
@@ -2834,12 +2854,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>474</v>
@@ -2851,593 +2871,593 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>340</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>341</v>
       </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>342</v>
       </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>343</v>
       </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>344</v>
       </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>345</v>
       </c>
-      <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>346</v>
       </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>347</v>
       </c>
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>348</v>
       </c>
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>349</v>
       </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>350</v>
       </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>351</v>
       </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>88</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>352</v>
       </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>90</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>353</v>
       </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>354</v>
       </c>
-      <c r="D42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>355</v>
       </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>356</v>
       </c>
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>98</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>357</v>
       </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>100</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>101</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>358</v>
       </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>102</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>359</v>
       </c>
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>104</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>105</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>360</v>
       </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>106</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>434</v>
       </c>
-      <c r="D49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>109</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>361</v>
       </c>
-      <c r="D50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>110</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>111</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>362</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>64</v>
       </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>363</v>
       </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>114</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>364</v>
       </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>365</v>
       </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>118</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>119</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>366</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>64</v>
       </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>120</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>121</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>367</v>
       </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>122</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>123</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>368</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>64</v>
       </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>124</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>125</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>369</v>
       </c>
-      <c r="D58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>126</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>370</v>
       </c>
-      <c r="D59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>128</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>129</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>371</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>64</v>
       </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>130</v>
-      </c>
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>131</v>
       </c>
       <c r="B62" t="s">
         <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
@@ -3446,15 +3466,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D63" t="s">
         <v>67</v>
@@ -3463,253 +3483,253 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
       </c>
       <c r="C64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
         <v>375</v>
       </c>
-      <c r="D64" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>135</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>377</v>
       </c>
-      <c r="D65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>137</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>378</v>
       </c>
-      <c r="D66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>138</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>139</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>379</v>
       </c>
-      <c r="D67" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>140</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>141</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>380</v>
       </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>142</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>143</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>381</v>
       </c>
-      <c r="D69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>144</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>145</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>382</v>
       </c>
-      <c r="D70" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>146</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>147</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>383</v>
       </c>
-      <c r="D71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>148</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>149</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>384</v>
       </c>
-      <c r="D72" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>150</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>151</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>385</v>
       </c>
-      <c r="D73" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="D74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>152</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>153</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>386</v>
       </c>
-      <c r="D74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="D75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>154</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>155</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>387</v>
       </c>
-      <c r="D75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="D76" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>156</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>157</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>388</v>
       </c>
-      <c r="D76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="D77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>158</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>159</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>432</v>
-      </c>
-      <c r="D77" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" t="s">
-        <v>479</v>
       </c>
       <c r="D78" t="s">
         <v>64</v>
@@ -3718,117 +3738,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>479</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>162</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>163</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>392</v>
       </c>
-      <c r="D79" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>164</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>393</v>
       </c>
-      <c r="D80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>166</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>167</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>394</v>
       </c>
-      <c r="D81" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>168</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>169</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>395</v>
       </c>
-      <c r="D82" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>170</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>474</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>172</v>
       </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>173</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>174</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>397</v>
-      </c>
-      <c r="D84" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" t="s">
-        <v>398</v>
       </c>
       <c r="D85" t="s">
         <v>175</v>
@@ -3837,15 +3857,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D86" t="s">
         <v>175</v>
@@ -3854,15 +3874,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D87" t="s">
         <v>175</v>
@@ -3871,15 +3891,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D88" t="s">
         <v>175</v>
@@ -3888,15 +3908,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D89" t="s">
         <v>175</v>
@@ -3905,15 +3925,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D90" t="s">
         <v>175</v>
@@ -3922,15 +3942,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D91" t="s">
         <v>175</v>
@@ -3939,15 +3959,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="D92" t="s">
         <v>175</v>
@@ -3956,15 +3976,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="D93" t="s">
         <v>175</v>
@@ -3973,15 +3993,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D94" t="s">
         <v>175</v>
@@ -3990,15 +4010,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D95" t="s">
         <v>175</v>
@@ -4007,15 +4027,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D96" t="s">
         <v>175</v>
@@ -4024,15 +4044,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D97" t="s">
         <v>175</v>
@@ -4041,15 +4061,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D98" t="s">
         <v>175</v>
@@ -4058,15 +4078,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D99" t="s">
         <v>175</v>
@@ -4075,15 +4095,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D100" t="s">
         <v>175</v>
@@ -4092,32 +4112,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>428</v>
+      </c>
+      <c r="D101" t="s">
+        <v>175</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>208</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>209</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>430</v>
-      </c>
-      <c r="D101" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" t="s">
-        <v>433</v>
       </c>
       <c r="D102" t="s">
         <v>210</v>
@@ -4126,15 +4146,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D103" t="s">
         <v>210</v>
@@ -4143,83 +4163,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
+        <v>429</v>
+      </c>
+      <c r="D104" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>215</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>216</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>406</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>175</v>
       </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>217</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>218</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>413</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>219</v>
       </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>220</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>221</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>418</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>175</v>
       </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>222</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>223</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>420</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>224</v>
-      </c>
-      <c r="B108" t="s">
-        <v>225</v>
-      </c>
-      <c r="C108" t="s">
-        <v>421</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
@@ -4228,15 +4248,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
@@ -4245,100 +4265,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>422</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>228</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>229</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>376</v>
       </c>
-      <c r="D110" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>230</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>231</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>391</v>
       </c>
-      <c r="D111" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="D112" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>232</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>233</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>390</v>
       </c>
-      <c r="D112" t="s">
-        <v>67</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="D113" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>234</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>235</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>389</v>
       </c>
-      <c r="D113" t="s">
-        <v>67</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="D114" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>236</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>237</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>396</v>
-      </c>
-      <c r="D114" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>238</v>
-      </c>
-      <c r="B115" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" t="s">
-        <v>425</v>
       </c>
       <c r="D115" t="s">
         <v>175</v>
@@ -4347,15 +4367,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D116" t="s">
         <v>175</v>
@@ -4364,15 +4384,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D117" t="s">
         <v>175</v>
@@ -4381,15 +4401,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D118" t="s">
         <v>175</v>
@@ -4398,49 +4418,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>435</v>
+      </c>
+      <c r="D119" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>246</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>247</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>474</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>11</v>
       </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>248</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>249</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>436</v>
-      </c>
-      <c r="D120" t="s">
-        <v>210</v>
-      </c>
-      <c r="E120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" t="s">
-        <v>251</v>
-      </c>
-      <c r="C121" t="s">
-        <v>438</v>
       </c>
       <c r="D121" t="s">
         <v>210</v>
@@ -4449,250 +4469,250 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>438</v>
+      </c>
+      <c r="D122" t="s">
+        <v>210</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>252</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>253</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>437</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>219</v>
       </c>
-      <c r="E122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>254</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>255</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>439</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>256</v>
       </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>257</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>258</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>440</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>11</v>
       </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>259</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>260</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>441</v>
       </c>
-      <c r="D125" t="s">
-        <v>67</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="D126" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>261</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>262</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>442</v>
       </c>
-      <c r="D126" t="s">
-        <v>67</v>
-      </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="D127" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>263</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>264</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>443</v>
       </c>
-      <c r="D127" t="s">
-        <v>67</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="D128" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>265</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>266</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>444</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>175</v>
       </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>267</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>268</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>445</v>
       </c>
-      <c r="D129" t="s">
-        <v>67</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="D130" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>269</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>270</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>447</v>
       </c>
-      <c r="D130" t="s">
-        <v>67</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="D131" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>271</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>272</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>446</v>
       </c>
-      <c r="D131" t="s">
-        <v>67</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="D132" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>273</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>274</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>448</v>
       </c>
-      <c r="D132" t="s">
-        <v>67</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="D133" t="s">
+        <v>67</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>275</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>276</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>474</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>11</v>
       </c>
-      <c r="E133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>277</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>278</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>449</v>
       </c>
-      <c r="D134" t="s">
-        <v>67</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="D135" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>279</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>280</v>
-      </c>
-      <c r="C135" t="s">
-        <v>474</v>
-      </c>
-      <c r="D135" t="s">
-        <v>281</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>282</v>
-      </c>
-      <c r="B136" t="s">
-        <v>283</v>
       </c>
       <c r="C136" t="s">
         <v>474</v>
@@ -4704,32 +4724,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>282</v>
+      </c>
+      <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
+        <v>474</v>
+      </c>
+      <c r="D137" t="s">
+        <v>281</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>284</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>285</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>453</v>
-      </c>
-      <c r="D137" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>286</v>
-      </c>
-      <c r="B138" t="s">
-        <v>287</v>
-      </c>
-      <c r="C138" t="s">
-        <v>450</v>
       </c>
       <c r="D138" t="s">
         <v>175</v>
@@ -4738,83 +4758,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" t="s">
+        <v>450</v>
+      </c>
+      <c r="D139" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>54</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>288</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>474</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>51</v>
       </c>
-      <c r="E139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>289</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>290</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>452</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>175</v>
       </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>291</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>292</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>451</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>210</v>
       </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="E142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>293</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>294</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>455</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>295</v>
-      </c>
-      <c r="B143" t="s">
-        <v>296</v>
-      </c>
-      <c r="C143" t="s">
-        <v>458</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>175</v>
@@ -4823,15 +4843,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C144" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>175</v>
@@ -4840,15 +4860,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C145" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>175</v>
@@ -4857,15 +4877,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B146" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>175</v>
@@ -4874,15 +4894,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>175</v>
@@ -4891,15 +4911,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>175</v>
@@ -4908,49 +4928,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" t="s">
+        <v>453</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>307</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>308</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>459</v>
       </c>
-      <c r="D149" t="s">
-        <v>67</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="D150" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>309</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>310</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>462</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>311</v>
-      </c>
-      <c r="B151" t="s">
-        <v>312</v>
-      </c>
-      <c r="C151" t="s">
-        <v>463</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>175</v>
@@ -4959,100 +4979,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s">
+        <v>312</v>
+      </c>
+      <c r="C152" t="s">
+        <v>463</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>313</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>314</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>457</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>11</v>
       </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>316</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>464</v>
       </c>
-      <c r="D153" t="s">
-        <v>67</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="D154" t="s">
+        <v>67</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>318</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>465</v>
       </c>
-      <c r="D154" t="s">
-        <v>67</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+      <c r="D155" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>320</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>466</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>11</v>
       </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>321</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>322</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>467</v>
-      </c>
-      <c r="D156" t="s">
-        <v>175</v>
-      </c>
-      <c r="E156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>323</v>
-      </c>
-      <c r="B157" t="s">
-        <v>324</v>
-      </c>
-      <c r="C157" t="s">
-        <v>468</v>
       </c>
       <c r="D157" t="s">
         <v>175</v>
@@ -5061,15 +5081,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D158" t="s">
         <v>175</v>
@@ -5078,15 +5098,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B159" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C159" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D159" t="s">
         <v>175</v>
@@ -5095,15 +5115,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C160" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D160" t="s">
         <v>175</v>
@@ -5112,15 +5132,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C161" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D161" t="s">
         <v>175</v>
@@ -5129,15 +5149,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D162" t="s">
         <v>175</v>
@@ -5146,15 +5166,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B163" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D163" t="s">
         <v>175</v>
@@ -5163,8 +5183,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>337</v>
+      </c>
+      <c r="B164" t="s">
+        <v>338</v>
+      </c>
+      <c r="C164" t="s">
+        <v>476</v>
+      </c>
+      <c r="D164" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E163" xr:uid="{DA004760-6118-4FB3-8B48-D4AA43A3BA66}"/>
+  <autoFilter ref="A2:E164" xr:uid="{DA004760-6118-4FB3-8B48-D4AA43A3BA66}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5174,23 +5211,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64630E77-8F70-4ECB-BA68-CE4448E1DCE1}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>480</v>
       </c>
